--- a/Packages/cn.etetet.spell/Luban/Config/Datas/Text.xlsx
+++ b/Packages/cn.etetet.spell/Luban/Config/Datas/Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.spell/Luban/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/projectx/Packages/cn.etetet.spell/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E5B122-9F62-5644-943A-B9EAB49A2D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB7FEB8-818F-E44F-8DDC-8C6E40F01D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="1220" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
